--- a/Listas de precios/mayorista/CAÑO DE HIERRO DISMAY.xlsx
+++ b/Listas de precios/mayorista/CAÑO DE HIERRO DISMAY.xlsx
@@ -789,7 +789,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" s="26">
       <c r="A1" s="25" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>
@@ -1004,13 +1004,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/CAÑO DE HIERRO DISMAY.xlsx
+++ b/Listas de precios/mayorista/CAÑO DE HIERRO DISMAY.xlsx
@@ -789,7 +789,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" s="26">
       <c r="A1" s="25" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>
@@ -1004,13 +1004,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B35:D35"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/CAÑO DE HIERRO DISMAY.xlsx
+++ b/Listas de precios/mayorista/CAÑO DE HIERRO DISMAY.xlsx
@@ -789,7 +789,7 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" s="26">
       <c r="A1" s="25" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="F1" s="3" t="n"/>
     </row>
@@ -1004,13 +1004,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A9:E9"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
